--- a/100-package-test/100-package-test.xlsx
+++ b/100-package-test/100-package-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hallv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hallv\Prosjekt\Skole\Master-s-Thesis-AutoTrust\100-package-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C00AE8-CCCF-41B0-B45E-E39892502D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38766154-B22A-461F-BD58-8837A4851FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{616FE906-52E0-4D48-B9CD-496A0C63AEF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59193EBD-9E21-41B8-A44D-3000D27E3B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="214">
   <si>
     <t>Package Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Able to fetch Github data</t>
+  </si>
+  <si>
     <t>Overall rating</t>
   </si>
   <si>
@@ -371,7 +374,10 @@
     <t>2.19.1</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
   </si>
   <si>
     <t>Yoko.Tool</t>
@@ -641,6 +647,9 @@
     <t>2.6.0.2</t>
   </si>
   <si>
+    <t>Had a known vulnerability</t>
+  </si>
+  <si>
     <t>Analytics</t>
   </si>
   <si>
@@ -665,20 +674,17 @@
     <t>7.2.0</t>
   </si>
   <si>
-    <t>Fetched Github data</t>
-  </si>
-  <si>
-    <t>Had a known vulnerability, but not current version</t>
-  </si>
-  <si>
-    <t>Total Average</t>
+    <t>Total Median</t>
+  </si>
+  <si>
+    <t>Total Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,31 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,35 +734,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -784,12 +766,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -802,220 +785,61 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1028,12 +852,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1046,26 +871,17 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1078,12 +894,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1495,30 +1312,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5B62B75-D263-4CE4-94BB-0F013C43578E}" name="Table1" displayName="Table1" ref="B2:V108" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" totalsRowDxfId="44">
-  <autoFilter ref="B2:V108" xr:uid="{F5B62B75-D263-4CE4-94BB-0F013C43578E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE7285AD-1FF5-4879-9222-F8943638D9CD}" name="Table1" displayName="Table1" ref="B1:V111" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" totalsRowDxfId="44">
+  <autoFilter ref="B1:V111" xr:uid="{CE7285AD-1FF5-4879-9222-F8943638D9CD}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{8B6B6DEC-4475-40A7-A5BE-04EDB7304A75}" name="Package Name" dataDxfId="22" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{0C084A86-93EA-4D0A-AF50-E137F18C1D1A}" name="Version" dataDxfId="21" totalsRowDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{B1D0D656-837E-44DC-8BBD-5C9563BED07B}" name="Category" dataDxfId="20" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{DA37D55F-803C-4B27-AEC3-7EF350BB0533}" name="Fetched Github data" dataDxfId="19" totalsRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{931FBCBC-B944-46A7-ABE2-2536CC605C82}" name="Overall rating" dataDxfId="18" totalsRowDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{E1AD9182-232E-4E6D-8F5B-FC93622C5B82}" name="Age" dataDxfId="17" totalsRowDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{1EED3836-0792-4058-BD41-422DF7EB0229}" name="Analyzers" dataDxfId="16" totalsRowDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{56611566-37AF-4F32-9FC2-84969A6BE435}" name="Contributors" dataDxfId="15" totalsRowDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{11EF7FE6-8BBA-446C-9551-B10A2408AD77}" name="Deprecated Package" dataDxfId="14" totalsRowDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{059B4E80-CBDD-4056-AE41-8B1CCA3C3622}" name="Deprecated Dependencies" dataDxfId="13" totalsRowDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{3622C78D-C659-4A89-B3BC-9C4D9885ADAC}" name="Direct and Transitive Dependencies" dataDxfId="12" totalsRowDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{A57D1CD0-E6C3-43B8-AF53-7F3E802C1DDD}" name="Documentation" dataDxfId="11" totalsRowDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{EC7E4E80-9AEF-4438-B7B3-2C1D6441A20B}" name="Initialization Script" dataDxfId="10" totalsRowDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{D97C4355-5AC0-45C0-9C7C-D7968ED56DC0}" name="Known Vulnerabilities" dataDxfId="9" totalsRowDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{9E8AF90B-000F-444D-90B3-DE585301EF72}" name="License" dataDxfId="8" totalsRowDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{B1A1DD7C-5E2E-45A4-B990-2416D90B2566}" name="Open Issues" dataDxfId="7" totalsRowDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{43575EDB-5B7B-42AF-A44E-A96F1BA38CC3}" name="Open Pull Requests" dataDxfId="6" totalsRowDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{6A66625F-3623-4260-A6BC-6D80352FDC9A}" name="Popularity" dataDxfId="5" totalsRowDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{1EEA7AC8-1E2D-4363-A8D4-E5B3957E7C72}" name="Verified Prefix" dataDxfId="4" totalsRowDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{E24E7C2D-AA74-47E7-BD10-8F31C89EBC18}" name="Widespread Use" dataDxfId="3" totalsRowDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{8DC2E4F2-2BF9-4E83-BF40-8ABDF78CF169}" name="Note" dataDxfId="2" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{5C6E61A5-474E-4910-B84F-20A00A2E34FD}" name="Package Name" dataDxfId="22" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{08A53134-287A-4B0B-8AD2-93646CDEC580}" name="Version" dataDxfId="21" totalsRowDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{057C2B40-D18E-4427-B5FF-F262162CA616}" name="Category" dataDxfId="20" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{6AC08A37-215D-40C7-9F41-8B02A17EA0BE}" name="Able to fetch Github data" dataDxfId="19" totalsRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{779D5F15-C89B-4443-BB96-CEA78F0F369F}" name="Overall rating" dataDxfId="18" totalsRowDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{987B4ED2-204B-4BCE-9023-26AFECB30AB3}" name="Age" dataDxfId="17" totalsRowDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{94F81D13-D8F3-45C3-AA23-A659484AAD61}" name="Analyzers" dataDxfId="16" totalsRowDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{3740549E-6175-4A9B-8BD5-A52688710484}" name="Contributors" dataDxfId="15" totalsRowDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{13EC0AD6-8DE2-45C5-9473-E2AF1E706036}" name="Deprecated Package" dataDxfId="14" totalsRowDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{37B86FA2-58E9-414C-9FA2-2785F31A8EF5}" name="Deprecated Dependencies" dataDxfId="13" totalsRowDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{041E6847-E59F-482B-9FD8-665708EF79C9}" name="Direct and Transitive Dependencies" dataDxfId="12" totalsRowDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{3513101E-6926-4448-82E8-FCB270E992C2}" name="Documentation" dataDxfId="11" totalsRowDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{63E6324D-2660-4692-B1E1-15373CCBF3A6}" name="Initialization Script" dataDxfId="10" totalsRowDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{F1AB032A-A545-4510-B443-FECB34B02BAC}" name="Known Vulnerabilities" dataDxfId="9" totalsRowDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{9774CA94-1DC4-493F-9462-25EACEF1A53F}" name="License" dataDxfId="8" totalsRowDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{BABECCE4-C580-4F2C-8F19-A31C8A3344B8}" name="Open Issues" dataDxfId="7" totalsRowDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{5BF8C285-9429-4E6F-A31B-8AAC7EA10B94}" name="Open Pull Requests" dataDxfId="6" totalsRowDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{FBD645C6-4133-425D-9950-295E676805EB}" name="Popularity" dataDxfId="5" totalsRowDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{43D916AA-93C5-415B-95BF-C9E1CA4DC468}" name="Verified Prefix" dataDxfId="4" totalsRowDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{E3F09386-C70B-4961-B923-D7AFC1DEC3CD}" name="Widespread Use" dataDxfId="3" totalsRowDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{0348D37A-A5D8-4C11-B2D0-3B82F58AB161}" name="Note" dataDxfId="2" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1820,124 +1637,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF99327-4534-4163-867B-4C6276EBF2D3}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:Y136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A42FFA-401B-41DF-8274-7AC60F48D940}">
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -1949,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -1973,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1">
         <v>2</v>
@@ -1987,283 +1866,287 @@
       <c r="U3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>2</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -2313,28 +2196,29 @@
       <c r="U8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -2373,33 +2257,34 @@
         <v>2</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -2429,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -2443,22 +2328,23 @@
       <c r="U10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -2494,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
@@ -2503,39 +2389,40 @@
         <v>2</v>
       </c>
       <c r="T11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -2568,39 +2455,40 @@
         <v>2</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2621,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
         <v>2</v>
@@ -2638,22 +2526,23 @@
       <c r="U13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -2686,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="1">
         <v>2</v>
@@ -2698,27 +2587,28 @@
         <v>2</v>
       </c>
       <c r="T14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -2763,287 +2653,292 @@
         <v>2</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>2</v>
-      </c>
-      <c r="S17" s="1">
-        <v>2</v>
-      </c>
-      <c r="T17" s="1">
-        <v>2</v>
-      </c>
-      <c r="U17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -3055,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -3076,13 +2971,13 @@
         <v>2</v>
       </c>
       <c r="P20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1">
         <v>2</v>
@@ -3091,101 +2986,103 @@
         <v>2</v>
       </c>
       <c r="U20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>2</v>
-      </c>
-      <c r="S21" s="1">
-        <v>2</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1">
         <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -3221,24 +3118,25 @@
         <v>2</v>
       </c>
       <c r="U22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -3250,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -3286,284 +3184,289 @@
         <v>2</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1">
-        <v>2</v>
-      </c>
-      <c r="O24" s="1">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>2</v>
-      </c>
-      <c r="R24" s="1">
-        <v>2</v>
-      </c>
-      <c r="S24" s="1">
-        <v>2</v>
-      </c>
-      <c r="T24" s="1">
-        <v>2</v>
-      </c>
-      <c r="U24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>2</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>2</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>2</v>
-      </c>
-      <c r="U25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>2</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2</v>
-      </c>
-      <c r="S26" s="1">
-        <v>2</v>
-      </c>
-      <c r="T26" s="1">
-        <v>2</v>
-      </c>
-      <c r="U26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>2</v>
-      </c>
-      <c r="T27" s="1">
-        <v>2</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -3613,22 +3516,23 @@
       <c r="U28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
         <v>5</v>
@@ -3640,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -3676,101 +3580,103 @@
         <v>2</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>2</v>
+      </c>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1">
-        <v>2</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>2</v>
-      </c>
-      <c r="P30" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1">
-        <v>2</v>
-      </c>
-      <c r="T30" s="1">
-        <v>2</v>
-      </c>
-      <c r="U30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
@@ -3785,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
         <v>2</v>
@@ -3803,370 +3709,376 @@
         <v>2</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>2</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="1">
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2</v>
+      </c>
+      <c r="T33" s="1">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>2</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>2</v>
-      </c>
-      <c r="S32" s="1">
-        <v>2</v>
-      </c>
-      <c r="T32" s="1">
-        <v>2</v>
-      </c>
-      <c r="U32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="1">
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1">
         <v>5</v>
       </c>
-      <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2</v>
-      </c>
-      <c r="N33" s="1">
-        <v>2</v>
-      </c>
-      <c r="O33" s="1">
-        <v>2</v>
-      </c>
-      <c r="P33" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>2</v>
-      </c>
-      <c r="R33" s="1">
-        <v>2</v>
-      </c>
-      <c r="S33" s="1">
-        <v>2</v>
-      </c>
-      <c r="T33" s="1">
-        <v>2</v>
-      </c>
-      <c r="U33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>2</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
-      <c r="K34" s="1">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2</v>
-      </c>
-      <c r="M34" s="1">
-        <v>2</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>2</v>
-      </c>
-      <c r="P34" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>2</v>
-      </c>
-      <c r="T34" s="1">
-        <v>2</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2</v>
+      </c>
+      <c r="T36" s="1">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2</v>
+      </c>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1">
-        <v>2</v>
-      </c>
-      <c r="N35" s="1">
-        <v>2</v>
-      </c>
-      <c r="O35" s="1">
-        <v>2</v>
-      </c>
-      <c r="P35" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>2</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>2</v>
-      </c>
-      <c r="T35" s="1">
-        <v>2</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>2</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1">
-        <v>2</v>
-      </c>
-      <c r="N36" s="1">
-        <v>2</v>
-      </c>
-      <c r="O36" s="1">
-        <v>2</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>2</v>
-      </c>
-      <c r="R36" s="1">
-        <v>2</v>
-      </c>
-      <c r="S36" s="1">
-        <v>2</v>
-      </c>
-      <c r="T36" s="1">
-        <v>2</v>
-      </c>
-      <c r="U36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>2</v>
       </c>
       <c r="K37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>2</v>
@@ -4181,10 +4093,10 @@
         <v>2</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" s="1">
         <v>2</v>
@@ -4198,152 +4110,155 @@
       <c r="U37" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>2</v>
+      </c>
+      <c r="U38" s="1">
+        <v>2</v>
+      </c>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="1">
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1">
-        <v>2</v>
-      </c>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2</v>
-      </c>
-      <c r="P38" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>2</v>
-      </c>
-      <c r="R38" s="1">
-        <v>2</v>
-      </c>
-      <c r="S38" s="1">
-        <v>2</v>
-      </c>
-      <c r="T38" s="1">
-        <v>2</v>
-      </c>
-      <c r="U38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="1">
-        <v>5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2</v>
-      </c>
-      <c r="L39" s="1">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2</v>
-      </c>
-      <c r="N39" s="1">
-        <v>2</v>
-      </c>
-      <c r="O39" s="1">
-        <v>2</v>
-      </c>
-      <c r="P39" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>2</v>
-      </c>
-      <c r="R39" s="1">
-        <v>2</v>
-      </c>
-      <c r="S39" s="1">
-        <v>2</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2</v>
-      </c>
-      <c r="U39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
@@ -4352,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
         <v>2</v>
@@ -4367,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
         <v>2</v>
@@ -4379,10 +4294,10 @@
         <v>2</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" s="1">
         <v>2</v>
@@ -4391,24 +4306,25 @@
         <v>2</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1">
         <v>4</v>
@@ -4417,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <v>2</v>
@@ -4432,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1">
         <v>2</v>
@@ -4444,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="Q41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>2</v>
@@ -4453,222 +4369,226 @@
         <v>2</v>
       </c>
       <c r="T41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2</v>
+      </c>
+      <c r="R42" s="1">
+        <v>2</v>
+      </c>
+      <c r="S42" s="1">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1">
+        <v>2</v>
+      </c>
+      <c r="U42" s="1">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="1">
+      <c r="E43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1">
         <v>4</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>2</v>
-      </c>
-      <c r="K42" s="1">
-        <v>2</v>
-      </c>
-      <c r="L42" s="1">
-        <v>2</v>
-      </c>
-      <c r="M42" s="1">
-        <v>2</v>
-      </c>
-      <c r="N42" s="1">
-        <v>2</v>
-      </c>
-      <c r="O42" s="1">
-        <v>2</v>
-      </c>
-      <c r="P42" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>2</v>
-      </c>
-      <c r="S42" s="1">
-        <v>2</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>2</v>
+      </c>
+      <c r="S43" s="1">
+        <v>2</v>
+      </c>
+      <c r="T43" s="1">
+        <v>2</v>
+      </c>
+      <c r="U43" s="1">
+        <v>2</v>
+      </c>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="1">
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1">
         <v>5</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>2</v>
-      </c>
-      <c r="J43" s="1">
-        <v>2</v>
-      </c>
-      <c r="K43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1">
-        <v>2</v>
-      </c>
-      <c r="M43" s="1">
-        <v>2</v>
-      </c>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1">
-        <v>2</v>
-      </c>
-      <c r="P43" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>2</v>
-      </c>
-      <c r="R43" s="1">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1">
-        <v>2</v>
-      </c>
-      <c r="T43" s="1">
-        <v>2</v>
-      </c>
-      <c r="U43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>2</v>
+      </c>
+      <c r="T44" s="1">
+        <v>2</v>
+      </c>
+      <c r="U44" s="1">
+        <v>2</v>
+      </c>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="1">
-        <v>4</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>2</v>
-      </c>
-      <c r="K44" s="1">
-        <v>2</v>
-      </c>
-      <c r="L44" s="1">
-        <v>2</v>
-      </c>
-      <c r="M44" s="1">
-        <v>2</v>
-      </c>
-      <c r="N44" s="1">
-        <v>2</v>
-      </c>
-      <c r="O44" s="1">
-        <v>2</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>2</v>
-      </c>
-      <c r="S44" s="1">
-        <v>2</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2</v>
-      </c>
-      <c r="U44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -4680,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1">
         <v>2</v>
@@ -4689,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
         <v>2</v>
@@ -4704,10 +4624,10 @@
         <v>2</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" s="1">
         <v>2</v>
@@ -4718,158 +4638,161 @@
       <c r="U45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2</v>
+      </c>
+      <c r="T46" s="1">
+        <v>2</v>
+      </c>
+      <c r="U46" s="1">
+        <v>2</v>
+      </c>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="1">
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="1">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2</v>
-      </c>
-      <c r="K46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1">
-        <v>2</v>
-      </c>
-      <c r="O46" s="1">
-        <v>2</v>
-      </c>
-      <c r="P46" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>2</v>
-      </c>
-      <c r="R46" s="1">
-        <v>2</v>
-      </c>
-      <c r="S46" s="1">
-        <v>2</v>
-      </c>
-      <c r="T46" s="1">
-        <v>2</v>
-      </c>
-      <c r="U46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>2</v>
+      </c>
+      <c r="R47" s="1">
+        <v>2</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>2</v>
+      </c>
+      <c r="U47" s="1">
+        <v>2</v>
+      </c>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="1">
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1">
         <v>4</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>2</v>
-      </c>
-      <c r="K47" s="1">
-        <v>2</v>
-      </c>
-      <c r="L47" s="1">
-        <v>2</v>
-      </c>
-      <c r="M47" s="1">
-        <v>2</v>
-      </c>
-      <c r="N47" s="1">
-        <v>2</v>
-      </c>
-      <c r="O47" s="1">
-        <v>2</v>
-      </c>
-      <c r="P47" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>2</v>
-      </c>
-      <c r="T47" s="1">
-        <v>2</v>
-      </c>
-      <c r="U47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1">
-        <v>5</v>
-      </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>2</v>
@@ -4902,45 +4825,46 @@
         <v>2</v>
       </c>
       <c r="R48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48" s="1">
         <v>2</v>
       </c>
+      <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>2</v>
@@ -4964,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="Q49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -4973,39 +4897,40 @@
         <v>2</v>
       </c>
       <c r="T49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
         <v>2</v>
@@ -5020,19 +4945,19 @@
         <v>2</v>
       </c>
       <c r="N50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" s="1">
         <v>2</v>
       </c>
       <c r="P50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" s="1">
         <v>2</v>
@@ -5041,33 +4966,34 @@
         <v>2</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1">
         <v>2</v>
@@ -5085,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" s="1">
         <v>2</v>
@@ -5094,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="Q51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
         <v>2</v>
@@ -5106,147 +5032,160 @@
         <v>2</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1">
-        <v>2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2</v>
-      </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="1">
-        <v>2</v>
-      </c>
-      <c r="M52" s="1">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1">
-        <v>2</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2</v>
-      </c>
-      <c r="P52" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1">
-        <v>2</v>
-      </c>
-      <c r="T52" s="1">
-        <v>2</v>
-      </c>
-      <c r="U52" s="1">
-        <v>2</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <f>MEDIAN(F2:F51)</f>
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" ref="G52:U52" si="0">MEDIAN(G2:G51)</f>
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V52" s="4"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2">
-        <f>SUM(F3:F52)/50</f>
-        <v>4.5</v>
+        <f>_xlfn.MODE.SNGL(F2:F52)</f>
+        <v>5</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" ref="G53:U53" si="0">SUM(G3:G52)/50</f>
-        <v>1.1599999999999999</v>
+        <f t="shared" ref="G53:U53" si="1">_xlfn.MODE.SNGL(G2:G52)</f>
+        <v>2</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.76</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.52</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.88</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.86</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="U53" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V53" s="4"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
@@ -5274,16 +5213,16 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -5333,23 +5272,24 @@
       <c r="U55" s="1">
         <v>0</v>
       </c>
+      <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
@@ -5398,22 +5338,23 @@
       <c r="U56" s="1">
         <v>0</v>
       </c>
+      <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -5463,22 +5404,23 @@
       <c r="U57" s="1">
         <v>2</v>
       </c>
+      <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
@@ -5528,22 +5470,23 @@
       <c r="U58" s="1">
         <v>0</v>
       </c>
+      <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -5593,22 +5536,23 @@
       <c r="U59" s="1">
         <v>0</v>
       </c>
+      <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
@@ -5658,22 +5602,23 @@
       <c r="U60" s="1">
         <v>0</v>
       </c>
+      <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
@@ -5723,22 +5668,23 @@
       <c r="U61" s="1">
         <v>0</v>
       </c>
+      <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -5788,22 +5734,23 @@
       <c r="U62" s="1">
         <v>0</v>
       </c>
+      <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
@@ -5853,22 +5800,23 @@
       <c r="U63" s="1">
         <v>0</v>
       </c>
+      <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
@@ -5918,22 +5866,23 @@
       <c r="U64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
@@ -5983,22 +5932,23 @@
       <c r="U65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
@@ -6048,22 +5998,23 @@
       <c r="U66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
@@ -6113,22 +6064,23 @@
       <c r="U67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
@@ -6178,22 +6130,23 @@
       <c r="U68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
@@ -6243,22 +6196,23 @@
       <c r="U69" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1">
         <v>2</v>
@@ -6308,23 +6262,24 @@
       <c r="U70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F71" s="1">
         <v>2</v>
       </c>
@@ -6373,23 +6328,24 @@
       <c r="U71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F72" s="1">
         <v>2</v>
       </c>
@@ -6438,22 +6394,23 @@
       <c r="U72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F73" s="1">
         <v>3</v>
@@ -6503,23 +6460,24 @@
       <c r="U73" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F74" s="1">
         <v>2</v>
       </c>
@@ -6568,22 +6526,23 @@
       <c r="U74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
@@ -6633,22 +6592,23 @@
       <c r="U75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1">
         <v>3</v>
@@ -6698,22 +6658,23 @@
       <c r="U76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
@@ -6763,22 +6724,23 @@
       <c r="U77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F78" s="1">
         <v>3</v>
@@ -6828,22 +6790,23 @@
       <c r="U78" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
@@ -6893,22 +6856,23 @@
       <c r="U79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
@@ -6958,22 +6922,23 @@
       <c r="U80" s="1">
         <v>0</v>
       </c>
+      <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1">
         <v>3</v>
@@ -7023,22 +6988,23 @@
       <c r="U81" s="1">
         <v>0</v>
       </c>
+      <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
@@ -7088,22 +7054,23 @@
       <c r="U82" s="1">
         <v>0</v>
       </c>
+      <c r="V82" s="1"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
@@ -7153,22 +7120,23 @@
       <c r="U83" s="1">
         <v>1</v>
       </c>
+      <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -7218,22 +7186,23 @@
       <c r="U84" s="1">
         <v>0</v>
       </c>
+      <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
@@ -7283,22 +7252,23 @@
       <c r="U85" s="1">
         <v>0</v>
       </c>
+      <c r="V85" s="1"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1">
         <v>3</v>
@@ -7348,22 +7318,23 @@
       <c r="U86" s="1">
         <v>0</v>
       </c>
+      <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1">
         <v>2</v>
@@ -7413,22 +7384,23 @@
       <c r="U87" s="1">
         <v>0</v>
       </c>
+      <c r="V87" s="1"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F88" s="1">
         <v>2</v>
@@ -7478,22 +7450,23 @@
       <c r="U88" s="1">
         <v>0</v>
       </c>
+      <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F89" s="1">
         <v>2</v>
@@ -7543,22 +7516,23 @@
       <c r="U89" s="1">
         <v>0</v>
       </c>
+      <c r="V89" s="1"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
@@ -7608,22 +7582,23 @@
       <c r="U90" s="1">
         <v>0</v>
       </c>
+      <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F91" s="1">
         <v>2</v>
@@ -7673,22 +7648,23 @@
       <c r="U91" s="1">
         <v>0</v>
       </c>
+      <c r="V91" s="1"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F92" s="1">
         <v>3</v>
@@ -7738,22 +7714,23 @@
       <c r="U92" s="1">
         <v>0</v>
       </c>
+      <c r="V92" s="1"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F93" s="1">
         <v>2</v>
@@ -7803,22 +7780,23 @@
       <c r="U93" s="1">
         <v>2</v>
       </c>
+      <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
@@ -7868,393 +7846,402 @@
       <c r="U94" s="1">
         <v>0</v>
       </c>
+      <c r="V94" s="1"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
-        <f>SUM(F55:F94)/40</f>
-        <v>2.4500000000000002</v>
+        <f>MEDIAN(F55:F94)</f>
+        <v>2</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" ref="G95:U95" si="1">SUM(G55:G94)/40</f>
-        <v>0.5</v>
+        <f t="shared" ref="G95:U95" si="2">MEDIAN(G55:G94)</f>
+        <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32500000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.95</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.65</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.95</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.075</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32500000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="1"/>
-        <v>1.075</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U95" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="V95" s="2"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="4"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
+        <f>_xlfn.MODE.SNGL(F55:F95)</f>
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" ref="G96:U96" si="3">_xlfn.MODE.SNGL(G55:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P96" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="4"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>91</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="1">
-        <v>2</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>2</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>0</v>
-      </c>
-      <c r="K97" s="1">
-        <v>2</v>
-      </c>
-      <c r="L97" s="1">
-        <v>2</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1">
-        <v>2</v>
-      </c>
-      <c r="O97" s="1">
-        <v>2</v>
-      </c>
-      <c r="P97" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>0</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>1</v>
-      </c>
-      <c r="U97" s="1">
-        <v>0</v>
-      </c>
-      <c r="V97" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="E98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1">
+        <v>1</v>
+      </c>
+      <c r="U98" s="1">
+        <v>0</v>
+      </c>
+      <c r="V98" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="1">
-        <v>3</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>2</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1">
-        <v>2</v>
-      </c>
-      <c r="K98" s="1">
-        <v>2</v>
-      </c>
-      <c r="L98" s="1">
-        <v>2</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1">
-        <v>2</v>
-      </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-      <c r="P98" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1">
-        <v>0</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1">
-        <v>2</v>
-      </c>
-      <c r="U98" s="1">
-        <v>0</v>
-      </c>
-      <c r="V98" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>2</v>
+      </c>
+      <c r="U99" s="1">
+        <v>0</v>
+      </c>
+      <c r="V99" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="1">
-        <v>4</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>2</v>
-      </c>
-      <c r="I99" s="1">
-        <v>2</v>
-      </c>
-      <c r="J99" s="1">
-        <v>2</v>
-      </c>
-      <c r="K99" s="1">
-        <v>2</v>
-      </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-      <c r="M99" s="1">
-        <v>2</v>
-      </c>
-      <c r="N99" s="1">
-        <v>0</v>
-      </c>
-      <c r="O99" s="1">
-        <v>2</v>
-      </c>
-      <c r="P99" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>2</v>
-      </c>
-      <c r="R99" s="1">
-        <v>2</v>
-      </c>
-      <c r="S99" s="1">
-        <v>2</v>
-      </c>
-      <c r="T99" s="1">
-        <v>2</v>
-      </c>
-      <c r="U99" s="1">
-        <v>2</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>2</v>
+      </c>
+      <c r="R100" s="1">
+        <v>2</v>
+      </c>
+      <c r="S100" s="1">
+        <v>2</v>
+      </c>
+      <c r="T100" s="1">
+        <v>2</v>
+      </c>
+      <c r="U100" s="1">
+        <v>2</v>
+      </c>
+      <c r="V100" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>2</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>2</v>
-      </c>
-      <c r="L100" s="1">
-        <v>2</v>
-      </c>
-      <c r="M100" s="1">
-        <v>1</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1">
-        <v>2</v>
-      </c>
-      <c r="P100" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>1</v>
-      </c>
-      <c r="U100" s="1">
-        <v>0</v>
-      </c>
-      <c r="V100" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
@@ -8263,10 +8250,10 @@
         <v>2</v>
       </c>
       <c r="I101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K101" s="1">
         <v>2</v>
@@ -8275,25 +8262,25 @@
         <v>2</v>
       </c>
       <c r="M101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O101" s="1">
         <v>2</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" s="1">
         <v>1</v>
@@ -8302,27 +8289,27 @@
         <v>0</v>
       </c>
       <c r="V101" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>96</v>
-      </c>
-      <c r="B102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
@@ -8331,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" s="1">
         <v>2</v>
@@ -8343,51 +8330,51 @@
         <v>2</v>
       </c>
       <c r="M102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102" s="1">
         <v>2</v>
       </c>
       <c r="O102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" s="1">
         <v>1</v>
       </c>
       <c r="U102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V102" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="C103" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D103" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F103" s="1">
         <v>2</v>
@@ -8396,28 +8383,28 @@
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1">
         <v>2</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103" s="1">
         <v>2</v>
       </c>
       <c r="M103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" s="1">
         <v>2</v>
       </c>
       <c r="O103" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P103" s="1">
         <v>1</v>
@@ -8429,122 +8416,122 @@
         <v>0</v>
       </c>
       <c r="S103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" s="1">
         <v>1</v>
       </c>
       <c r="U103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
+        <v>97</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>2</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2</v>
+      </c>
+      <c r="P104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1">
+        <v>1</v>
+      </c>
+      <c r="U104" s="1">
+        <v>0</v>
+      </c>
+      <c r="V104" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>98</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="1">
-        <v>3</v>
-      </c>
-      <c r="G104" s="1">
-        <v>2</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
-      </c>
-      <c r="J104" s="1">
-        <v>2</v>
-      </c>
-      <c r="K104" s="1">
-        <v>0</v>
-      </c>
-      <c r="L104" s="1">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1">
-        <v>2</v>
-      </c>
-      <c r="N104" s="1">
-        <v>2</v>
-      </c>
-      <c r="O104" s="1">
-        <v>2</v>
-      </c>
-      <c r="P104" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <v>1</v>
-      </c>
-      <c r="T104" s="1">
-        <v>1</v>
-      </c>
-      <c r="U104" s="1">
-        <v>0</v>
-      </c>
-      <c r="V104" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>99</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="5" t="s">
         <v>205</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F105" s="1">
         <v>3</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" s="1">
         <v>2</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" s="1">
         <v>2</v>
       </c>
       <c r="K105" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M105" s="1">
         <v>2</v>
@@ -8556,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="P105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q105" s="1">
         <v>0</v>
@@ -8578,38 +8565,38 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>100</v>
+      <c r="A106" s="4">
+        <v>99</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F106" s="1">
         <v>3</v>
       </c>
       <c r="G106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1">
         <v>2</v>
       </c>
       <c r="I106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="1">
         <v>2</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106" s="1">
         <v>2</v>
@@ -8630,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S106" s="1">
         <v>1</v>
@@ -8642,193 +8629,377 @@
         <v>0</v>
       </c>
       <c r="V106" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2">
-        <f>SUM(F97:F106)/10</f>
-        <v>2.7</v>
-      </c>
-      <c r="G107" s="2">
-        <f t="shared" ref="G107:U107" si="2">SUM(G97:G106)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="H107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="I107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="K107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="L107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="N107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="O107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="P107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="Q107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="R107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="S107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="T107" s="2">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="U107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="V107" s="4"/>
+      <c r="A107" s="1">
+        <v>100</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>2</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1">
+        <v>2</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
       <c r="B108" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="C108" s="3"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="10">
-        <f>(SUM(F3:F52)+SUM(F55:F94)+SUM(F97:F106))/100</f>
-        <v>3.5</v>
-      </c>
-      <c r="G108" s="10">
-        <f t="shared" ref="G108:U108" si="3">(SUM(G3:G52)+SUM(G55:G94)+SUM(G97:G106))/100</f>
-        <v>0.82</v>
-      </c>
-      <c r="H108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.78</v>
-      </c>
-      <c r="I108" s="10">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="J108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.92</v>
-      </c>
-      <c r="K108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.74</v>
-      </c>
-      <c r="L108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.96</v>
-      </c>
-      <c r="M108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.55</v>
-      </c>
-      <c r="N108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.76</v>
-      </c>
-      <c r="O108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.96</v>
-      </c>
-      <c r="P108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.33</v>
-      </c>
-      <c r="Q108" s="10">
-        <f t="shared" si="3"/>
-        <v>0.68</v>
-      </c>
-      <c r="R108" s="10">
-        <f t="shared" si="3"/>
-        <v>0.97</v>
-      </c>
-      <c r="S108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.17</v>
-      </c>
-      <c r="T108" s="10">
-        <f t="shared" si="3"/>
-        <v>1.48</v>
-      </c>
-      <c r="U108" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V108" s="2"/>
+      <c r="F108" s="2">
+        <f>MEDIAN(F98:F107)</f>
+        <v>3</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" ref="G108:U108" si="4">MEDIAN(G98:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P108" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q108" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T108" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U108" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="4"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2">
+        <f>_xlfn.MODE.SNGL(F98:F108)</f>
+        <v>3</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" ref="G109:U109" si="5">_xlfn.MODE.SNGL(G98:G108)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P109" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T109" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U109" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="4"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C110" s="1"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2">
+        <f>MEDIAN(F2:F51,F55:F94,F98:F107)</f>
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" ref="G110:U110" si="6">MEDIAN(G2:G51,G55:G94,G98:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P110" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q110" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="T110" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U110" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V110" s="4"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
+        <f>_xlfn.MODE.SNGL(F2:F51,F55:F94,F98:F107)</f>
+        <v>5</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" ref="G111:U111" si="7">_xlfn.MODE.SNGL(G2:G51,G55:G94,G98:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="O111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q111" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T111" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U111" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V111" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>